--- a/TestData/CsvFiles/Test_Data.xlsx
+++ b/TestData/CsvFiles/Test_Data.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>XgTxkqDCwhyUxNtkqIhbRthwOEhEOEJ9-ojwrVv4ox5</t>
+          <t>4mtupTvfcmIHuDpCkoJYzrVL95jQIQqrvoBmVoffWME</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>n3LJgeP4JNGZqzaZ4</t>
+          <t>ZAcERAJBEv2oRm6xt</t>
         </is>
       </c>
     </row>

--- a/TestData/CsvFiles/Test_Data.xlsx
+++ b/TestData/CsvFiles/Test_Data.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>4mtupTvfcmIHuDpCkoJYzrVL95jQIQqrvoBmVoffWME</t>
+          <t>8a9T73sCe20rbiTUQNZJybpNbF0qfVTmuQojbFZxYXK</t>
         </is>
       </c>
     </row>
